--- a/documentation/Variaveis.xlsx
+++ b/documentation/Variaveis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Repositórios revisados\customer_segmentation\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A814B9A-7C07-43F0-90B1-61BDBBE0F5C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6717065-3475-4D3B-96EB-BE924399B67F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{78BADE86-6A71-40BD-AE3E-44C91AD2905F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
   <si>
     <t>Variável</t>
   </si>
@@ -198,12 +198,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -226,11 +226,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -249,6 +260,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -565,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F862AEB-1FC5-421A-A7EB-E0FA20C18A0A}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="A7:G7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -582,7 +596,7 @@
     <col min="7" max="7" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -605,7 +619,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -628,7 +642,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -649,7 +663,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -666,7 +680,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
@@ -687,7 +701,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
@@ -706,7 +720,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>23</v>
       </c>
@@ -723,9 +737,12 @@
       <c r="F7" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>27</v>
       </c>
@@ -746,7 +763,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>30</v>
       </c>
@@ -763,25 +780,25 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" s="2"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B16" s="2"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.3">
